--- a/biology/Zoologie/Causus_bilineatus/Causus_bilineatus.xlsx
+++ b/biology/Zoologie/Causus_bilineatus/Causus_bilineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Causus bilineatus est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Causus bilineatus est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Angola ;
 dans le sud de la République démocratique du Congo ;
 au Rwanda ;
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1905 : A list of the batrachians and reptiles collected by Dr. W. J. Ansorge in Angola with descriptions of new species. Annals and Magazine of Natural History, sér. 7, vol. 16, p. 105-115 (texte intégral).</t>
         </is>
